--- a/Results/xlsx/RS230005BOS01.xlsx
+++ b/Results/xlsx/RS230005BOS01.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I72"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3711,8 +3711,713 @@
         </is>
       </c>
     </row>
-    <row r="71"/>
-    <row r="72"/>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35354</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35355</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35402</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.25                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35403</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.25                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35443</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35444</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35491</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.26                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35492</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.26                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35608</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35674</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.28                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-28</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35532</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.02.27                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35533</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.02.27                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-02-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35830</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Fill_KEP_PL                                                                                                                                                                                                                                                   </t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL discounts data for the report date: 2021.03.01                                                                                                                                                                                                            </t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35831</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      35932</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>sa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">         NULL</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       NULL</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">p_Get_KEP_PL                                                                                                                                                                                                                                                    </t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No PL global price change data for the report date: 2021.03.01                                                                                                                                                                                                  </t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      2021-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="86"/>
+    <row r="87"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
